--- a/SandakozhiRecordKeeping.xlsx
+++ b/SandakozhiRecordKeeping.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Adai details" sheetId="1" r:id="rId1"/>
     <sheet name="Puchase and Sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Adaikku ukkaarnthathu</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Sambal</t>
+  </si>
+  <si>
+    <t>Sevala</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +441,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -447,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/SandakozhiRecordKeeping.xlsx
+++ b/SandakozhiRecordKeeping.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Adai details" sheetId="1" r:id="rId1"/>
     <sheet name="Puchase and Sales" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Adaikku ukkaarnthathu</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Sevala</t>
+  </si>
+  <si>
+    <t>Kunju porichathu</t>
+  </si>
+  <si>
+    <t>30th March</t>
   </si>
 </sst>
 </file>
@@ -404,49 +410,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
